--- a/docs/bus_src_dest.xlsx
+++ b/docs/bus_src_dest.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="267">
   <si>
     <t xml:space="preserve">src A: SB</t>
   </si>
@@ -732,34 +733,97 @@
     <t xml:space="preserve">PC</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetch OP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load LO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load HI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T5</t>
+    <t xml:space="preserve">IADDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carry in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carry out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM + SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM + SUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPCODE execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD/ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[math] MEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA MEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOR</t>
   </si>
 </sst>
 </file>
@@ -769,7 +833,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -804,8 +868,71 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFED4C05"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF069A2E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF729FCF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF729FCF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF069A2E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFED4C05"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,55 +942,91 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF04E4D"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFED4C05"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC7A0CB"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAA61A"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFE8A202"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF685"/>
+        <bgColor rgb="FFFFFFA6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE5CA"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B274"/>
+        <bgColor rgb="FF069A2E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF59C5C7"/>
+        <bgColor rgb="FF729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8A202"/>
+        <bgColor rgb="FFFAA61A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFF685"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFAA61A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
         <bgColor rgb="FFFFE5CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE5CA"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B274"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFE5CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF59C5C7"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF59C5C7"/>
       </patternFill>
     </fill>
   </fills>
@@ -901,9 +1064,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -954,26 +1121,102 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -986,19 +1229,19 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF069A2E"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFE5CA"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFF04E4D"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
@@ -1011,20 +1254,20 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFF685"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFC7A0CB"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF59C5C7"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFE8A202"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFAA61A"/>
-      <rgbColor rgb="FFF04E4D"/>
+      <rgbColor rgb="FFED4C05"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B274"/>
       <rgbColor rgb="FF003300"/>
@@ -1039,55 +1282,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="16.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1154,2897 +1396,2942 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="L3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="n">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8" t="n">
+      <c r="L4" s="8"/>
+      <c r="M4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="n">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8" t="n">
+      <c r="L5" s="8"/>
+      <c r="M5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="n">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8" t="n">
+      <c r="L6" s="8"/>
+      <c r="M6" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="n">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8" t="n">
+      <c r="L7" s="8"/>
+      <c r="M7" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="U7" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="n">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8" t="n">
+      <c r="L8" s="8"/>
+      <c r="M8" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="n">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8" t="n">
+      <c r="L9" s="8"/>
+      <c r="M9" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="n">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8" t="n">
+      <c r="L10" s="8"/>
+      <c r="M10" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="L11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="n">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8" t="n">
+      <c r="L12" s="8"/>
+      <c r="M12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="n">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8" t="n">
+      <c r="L13" s="8"/>
+      <c r="M13" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="n">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8" t="n">
+      <c r="L14" s="8"/>
+      <c r="M14" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="n">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8" t="n">
+      <c r="L15" s="8"/>
+      <c r="M15" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="n">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8" t="n">
+      <c r="L16" s="8"/>
+      <c r="M16" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="n">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8" t="n">
+      <c r="L17" s="8"/>
+      <c r="M17" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="S17" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="n">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8" t="n">
+      <c r="L18" s="8"/>
+      <c r="M18" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="7" t="n">
+      <c r="L19" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M19" s="8" t="n">
+      <c r="M19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="S19" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="T19" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="n">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8" t="n">
+      <c r="L20" s="8"/>
+      <c r="M20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="T20" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="n">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8" t="n">
+      <c r="L21" s="8"/>
+      <c r="M21" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="S21" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="T21" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="n">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8" t="n">
+      <c r="L22" s="8"/>
+      <c r="M22" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="R22" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T22" s="10" t="s">
+      <c r="T22" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="n">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8" t="n">
+      <c r="L23" s="8"/>
+      <c r="M23" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P23" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="S23" s="12" t="s">
+      <c r="S23" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="T23" s="10" t="s">
+      <c r="T23" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="U23" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="n">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8" t="n">
+      <c r="L24" s="8"/>
+      <c r="M24" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="10" t="s">
+      <c r="P24" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="S24" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="T24" s="10" t="s">
+      <c r="T24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="U24" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="n">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8" t="n">
+      <c r="L25" s="8"/>
+      <c r="M25" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="R25" s="10" t="s">
+      <c r="R25" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="S25" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="T25" s="10" t="s">
+      <c r="T25" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="U25" s="11" t="s">
+      <c r="U25" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="n">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8" t="n">
+      <c r="L26" s="8"/>
+      <c r="M26" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="S26" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="T26" s="10" t="s">
+      <c r="T26" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="U26" s="11" t="s">
+      <c r="U26" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B27" s="8" t="n">
+      <c r="B27" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="L27" s="7" t="n">
+      <c r="L27" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M27" s="8" t="n">
+      <c r="M27" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="S27" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="T27" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="U27" s="9" t="s">
+      <c r="U27" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="n">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8" t="n">
+      <c r="L28" s="8"/>
+      <c r="M28" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="S28" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="T28" s="9" t="s">
+      <c r="T28" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="U28" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8" t="n">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8" t="n">
+      <c r="L29" s="8"/>
+      <c r="M29" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="P29" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="Q29" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="S29" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="T29" s="9" t="s">
+      <c r="T29" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="U29" s="9" t="s">
+      <c r="U29" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="n">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="8" t="n">
+      <c r="L30" s="8"/>
+      <c r="M30" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="T30" s="9" t="s">
+      <c r="T30" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="U30" s="9" t="s">
+      <c r="U30" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="n">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="8" t="n">
+      <c r="L31" s="8"/>
+      <c r="M31" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="P31" s="9" t="s">
+      <c r="P31" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="R31" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="S31" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="T31" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="U31" s="9" t="s">
+      <c r="U31" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="n">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8" t="n">
+      <c r="L32" s="8"/>
+      <c r="M32" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="O32" s="9" t="s">
+      <c r="O32" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="P32" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q32" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="S32" s="9" t="s">
+      <c r="S32" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="T32" s="9" t="s">
+      <c r="T32" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="U32" s="9" t="s">
+      <c r="U32" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="n">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8" t="n">
+      <c r="L33" s="8"/>
+      <c r="M33" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="O33" s="9" t="s">
+      <c r="O33" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="P33" s="9" t="s">
+      <c r="P33" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="R33" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="S33" s="9" t="s">
+      <c r="S33" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="T33" s="9" t="s">
+      <c r="T33" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="U33" s="9" t="s">
+      <c r="U33" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="n">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="8" t="n">
+      <c r="L34" s="8"/>
+      <c r="M34" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="O34" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="P34" s="9" t="s">
+      <c r="P34" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="Q34" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="R34" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="S34" s="9" t="s">
+      <c r="S34" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="T34" s="9" t="s">
+      <c r="T34" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="U34" s="9" t="s">
+      <c r="U34" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="K36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H41" s="15" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="K41" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B42" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E42" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G42" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I42" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J42" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B38" s="8" t="n">
+      <c r="B43" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F43" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H43" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I43" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J43" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="n">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F44" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G44" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H44" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J44" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="n">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F45" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G45" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H45" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J45" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8" t="n">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F46" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H46" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I46" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J46" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8" t="n">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C47" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G47" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H47" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J47" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8" t="n">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C48" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G48" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I48" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J48" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8" t="n">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C49" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D49" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F49" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G49" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H49" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I49" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J49" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8" t="n">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F50" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G50" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H50" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I50" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="J50" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B46" s="8" t="n">
+      <c r="B51" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G51" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J51" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8" t="n">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G52" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I52" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J52" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8" t="n">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J53" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8" t="n">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F54" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G54" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I54" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J54" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8" t="n">
+      <c r="K54" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D55" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E55" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F55" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G55" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I55" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J55" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8" t="n">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G56" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J56" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8" t="n">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H57" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I57" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J57" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8" t="n">
+      <c r="K57" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I58" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J58" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
+      <c r="K58" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B54" s="8" t="n">
+      <c r="B59" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C59" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D59" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E59" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F59" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G59" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H59" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I59" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J59" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8" t="n">
+      <c r="K59" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C60" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D60" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E60" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F60" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G60" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H60" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I60" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J60" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8" t="n">
+      <c r="K60" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D61" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E61" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F61" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H61" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I61" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J61" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8" t="n">
+      <c r="K61" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C62" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D62" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E62" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F62" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G62" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H62" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I62" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J62" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8" t="n">
+      <c r="K62" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C63" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D63" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F63" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G63" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H63" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I63" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J63" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8" t="n">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D64" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F64" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H64" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I64" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J64" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8" t="n">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C65" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D65" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E65" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F65" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G65" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H65" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="I65" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J65" s="12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8" t="n">
+      <c r="K65" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C66" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D66" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E66" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F66" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G66" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H66" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="I61" s="14" t="s">
+      <c r="I66" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J66" s="12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="n">
+      <c r="K66" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B62" s="8" t="n">
+      <c r="B67" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D67" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E67" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F67" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G67" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H67" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I67" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J67" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8" t="n">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D68" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E68" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F68" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G68" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H68" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I68" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J68" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8" t="n">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C69" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D69" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E69" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F69" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G69" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H69" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I69" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J69" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8" t="n">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D70" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E70" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F70" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G70" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H70" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I70" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J70" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8" t="n">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D71" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F71" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G71" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I71" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J71" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8" t="n">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D72" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E72" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F72" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G72" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H72" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I72" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J72" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8" t="n">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D73" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E73" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F73" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G73" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H73" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I73" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J73" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8" t="n">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C74" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D74" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E74" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F74" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G74" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H74" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I74" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J74" s="10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4058,14 +4345,14 @@
     <mergeCell ref="L19:L26"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="L27:L34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A67:A74"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4074,7 +4361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4084,34 +4371,31 @@
       <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="0" t="str">
@@ -4148,28 +4432,28 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="0" t="str">
@@ -4206,28 +4490,28 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="0" t="str">
@@ -4264,28 +4548,28 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="0" t="str">
@@ -4322,28 +4606,28 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="0" t="str">
@@ -4380,28 +4664,28 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>51</v>
       </c>
       <c r="J6" s="0" t="str">
@@ -4438,28 +4722,28 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="0" t="str">
@@ -4496,28 +4780,28 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="0" t="str">
@@ -4554,28 +4838,28 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="0" t="str">
@@ -4612,28 +4896,28 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>79</v>
       </c>
       <c r="J10" s="0" t="str">
@@ -4670,28 +4954,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J11" s="0" t="str">
@@ -4728,28 +5012,28 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>95</v>
       </c>
       <c r="J12" s="0" t="str">
@@ -4786,28 +5070,28 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J13" s="0" t="str">
@@ -4844,28 +5128,28 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>110</v>
       </c>
       <c r="J14" s="0" t="str">
@@ -4902,28 +5186,28 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>118</v>
       </c>
       <c r="J15" s="0" t="str">
@@ -4960,28 +5244,28 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>126</v>
       </c>
       <c r="J16" s="0" t="str">
@@ -5018,28 +5302,28 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>133</v>
       </c>
       <c r="J17" s="0" t="str">
@@ -5076,28 +5360,28 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
         <v>138</v>
       </c>
       <c r="J18" s="0" t="str">
@@ -5134,28 +5418,28 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="10" t="s">
         <v>143</v>
       </c>
       <c r="J19" s="0" t="str">
@@ -5192,28 +5476,28 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>148</v>
       </c>
       <c r="J20" s="0" t="str">
@@ -5250,28 +5534,28 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="10" t="s">
         <v>154</v>
       </c>
       <c r="J21" s="0" t="str">
@@ -5308,28 +5592,28 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="10" t="s">
         <v>161</v>
       </c>
       <c r="J22" s="0" t="str">
@@ -5366,28 +5650,28 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="10" t="s">
         <v>166</v>
       </c>
       <c r="J23" s="0" t="str">
@@ -5424,28 +5708,28 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>170</v>
       </c>
       <c r="J24" s="0" t="str">
@@ -5482,28 +5766,28 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>178</v>
       </c>
       <c r="J25" s="0" t="str">
@@ -5540,28 +5824,28 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="10" t="s">
         <v>185</v>
       </c>
       <c r="J26" s="0" t="str">
@@ -5598,28 +5882,28 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>193</v>
       </c>
       <c r="J27" s="0" t="str">
@@ -5656,28 +5940,28 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="10" t="s">
         <v>201</v>
       </c>
       <c r="J28" s="0" t="str">
@@ -5714,28 +5998,28 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>209</v>
       </c>
       <c r="J29" s="0" t="str">
@@ -5772,28 +6056,28 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="10" t="s">
         <v>217</v>
       </c>
       <c r="J30" s="0" t="str">
@@ -5830,28 +6114,28 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>225</v>
       </c>
       <c r="J31" s="0" t="str">
@@ -5888,28 +6172,28 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="10" t="s">
         <v>233</v>
       </c>
       <c r="J32" s="0" t="str">
@@ -5948,7 +6232,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5957,71 +6241,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A2:M35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="19" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:A35"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="15.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="34" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>236</v>
-      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="35" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>242</v>
-      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>243</v>
+      <c r="B6" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>244</v>
+      <c r="A7" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>245</v>
+      <c r="A8" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
